--- a/public/data/List.xlsx
+++ b/public/data/List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Freelance\wisata\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E4204-40ED-4FE6-900C-CAB73C6ACA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC76AE44-4A58-4DDA-84C1-589FC049A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D2363A19-4CDB-41FE-88BB-1F3B6ABF98F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
   <si>
     <t>NO</t>
   </si>
@@ -325,6 +325,243 @@
   </si>
   <si>
     <t>SLUG</t>
+  </si>
+  <si>
+    <t>TELP</t>
+  </si>
+  <si>
+    <t>RATING</t>
+  </si>
+  <si>
+    <t>DESKRIPSI</t>
+  </si>
+  <si>
+    <t>SAMPUL</t>
+  </si>
+  <si>
+    <t>GALERI</t>
+  </si>
+  <si>
+    <t>0823-1771-337</t>
+  </si>
+  <si>
+    <t>Terasering Panyaweuyan adalah sebuah objek wisata alam yang terletak di Kabupaten Majalengka. Tempat ini menawarkan pemandangan hamparan sawah bertingkat yang ditanami berbagai tanaman pangan oleh para petani. Dari puncak Terasering Panyaweuyan, wisatawan dapat melihat pesona alam Gunung Ciremai yang menjulang tinggi. Tempat ini cocok bagi wisatawan yang senang berkunjung ke tempat asri dan adem</t>
+  </si>
+  <si>
+    <t>1GJDB9zDRmggBtByBBw_7MTP_sJzMGMOG</t>
+  </si>
+  <si>
+    <t>1-rw2I3qV9aExOi2QTjpGqn1YUGJ3QcSH</t>
+  </si>
+  <si>
+    <t>0812-321-999</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Paralayang Gunung Panten adalah salah satu objek wisata ekstrem di Kabupaten Majalengka yang menawarkan pengalaman terbang layang dengan pemandangan alam yang memukau. Objek wisata ini terletak di Desa Sidamukti, Kecamatan Majalengka, dan telah menjadi spot paralayang yang populer sejak dibuka pada tahun 2010. Wisatawan dapat menikmati pemandangan Kota Majalengka dan Gunung Ciremai dari ketinggian, serta mencoba berbagai aktivitas ekstrem lainnya seperti gantole, outbound, ATV, dan paintball</t>
+  </si>
+  <si>
+    <t>1wPfXmjZ2HPS8dlp8pAFbB8wtoc2U9fdU</t>
+  </si>
+  <si>
+    <t>1PQS-BgPCDJlIEo1Anr1jj-Ege5NmKlfT</t>
+  </si>
+  <si>
+    <t>0822-6260-0744</t>
+  </si>
+  <si>
+    <t>Situ Cipanteun adalah sebuah danau alami yang terletak di Desa Gunungkuning, Majalengka. Danau ini memiliki air yang jernih dan luas sekitar satu hektar. Salah satu daya tarik utama dari Situ Cipanteun adalah warna airnya yang berubah-ubah sesuai musim. Di musim kemarau, airnya berwarna biru dan jernih, sedangkan di musim hujan, warna airnya berubah menjadi hijau. Wisatawan dapat menikmati pemandangan alam yang menenangkan dan berbagai aktivitas seperti menyewa perahu, berayun, dan berfoto bersama ikan-ikan yang sering muncul di permukaan air.</t>
+  </si>
+  <si>
+    <t>1gapiLKSFBlje7edF00OLVsk8LIKpWIDF</t>
+  </si>
+  <si>
+    <t>0878-6312-1046</t>
+  </si>
+  <si>
+    <t>Curug Muara Jaya adalah destinasi wisata populer di Majalengka, Jawa Barat. Menawarkan air terjun yang indah dikelilingi oleh kehijauan yang subur, menjadikannya tempat ideal bagi pecinta alam. Area ini juga menyediakan fasilitas seperti panggung, aula pertemuan, taman bermain anak, mushola, kamar mandi umum, dan warung makanan. Jalur trekking ke air terjun mudah dilalui, bahkan untuk anak-anak</t>
+  </si>
+  <si>
+    <t>0857-2227-5551</t>
+  </si>
+  <si>
+    <t>Cikadongdong River Tubing adalah aktivitas luar ruangan yang seru di Majalengka. Kegiatan ini melibatkan tubing menyusuri sungai dengan arus yang menantang, dikelilingi oleh alam yang masih asli. Rute tubing sepanjang sekitar 250 meter ini menawarkan pengalaman mendebarkan bagi para pencari petualangan. Tempat ini juga menyediakan fasilitas seperti warung, mushola, kamar mandi, dan area parkir</t>
+  </si>
+  <si>
+    <t>0857-9408-0090</t>
+  </si>
+  <si>
+    <t>1QuO_wcCRdxnUhxk3id8mwpOWggHxMIwV</t>
+  </si>
+  <si>
+    <t>1eYtYynhZ--L_pWKlD8E9AqtyGKH6uwr2</t>
+  </si>
+  <si>
+    <t>16hTi27PE2X2jzaCgBw4DjnK3_kbl4chn</t>
+  </si>
+  <si>
+    <t>1eRG8JoXyUTxfYeDqEhzD205wFN5nQnzl</t>
+  </si>
+  <si>
+    <t>1qixhX-PtnsQcUGmGzwQK_1Bl9xPq50H8</t>
+  </si>
+  <si>
+    <t>13JFTzEtSZA5DGa_pXoreCRnr6m8x5TQc</t>
+  </si>
+  <si>
+    <t>1xL6c1MvVksq9TYyDiZItgRgXHfDoLjLK</t>
+  </si>
+  <si>
+    <t>1F2haBuuyzuBY3ImpxvQH8D8kz-0shWjN</t>
+  </si>
+  <si>
+    <t>1mwtp7rK7iHaWu4RR-ho0zbKVAt1Dcpow</t>
+  </si>
+  <si>
+    <t>1mjj0XYI3-4h7KceH0SWW1CNNuPLXd-6o</t>
+  </si>
+  <si>
+    <t>1ZTBc91Fnp5XUlSFvQJgaoeVjeovDDN67</t>
+  </si>
+  <si>
+    <t>1MsGs8ACUN3EyFrOkhovqoCbXyDl1ROqx</t>
+  </si>
+  <si>
+    <t>17ZOfr-6lg8sxNCcpoA-4-XjiXtUruuQ-</t>
+  </si>
+  <si>
+    <t>1gw2-RSNf3qEHWhdVCoY0uh5jDnQtcVt1</t>
+  </si>
+  <si>
+    <t>1Xn6a2aTwQUzowitNrAKrBPYn2zoJih9_</t>
+  </si>
+  <si>
+    <t>14KuB2eUcCxiq6apg5_yx0oF8HOlk7xD8</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>1psbOPzEyl3gB2gNW-VEvIAFw47ieSgPn</t>
+  </si>
+  <si>
+    <t>1bCH4ditOfcTuxuM_3-I0jN7n_wec5nD6</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>1_fmGo2b3rTs4hC1UXX3oA6S0_InG682u</t>
+  </si>
+  <si>
+    <t>1B_ODQrzjW44uYj5qdWXh2YkDQz3kq8py</t>
+  </si>
+  <si>
+    <t>1yQBml-2CCZ01xMJoq4tQ6cR8qIzf1T2F</t>
+  </si>
+  <si>
+    <t>1tTn0JtEl2i7OkRVciAI6lOwYwvLdq5fc</t>
+  </si>
+  <si>
+    <t>0838-6614-7979</t>
+  </si>
+  <si>
+    <t>0817-613-246</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>1xKc8E1AAeYE7wQlyu_8BD6zkWF1cbOqK</t>
+  </si>
+  <si>
+    <t>1MNcwN8I_8vywk017Y1uiQAZOwMIXKV5l</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>Titik observasi &amp; jalan setapak yang melintasi tebing batu kapur yang indah terkenal sebagai "cadas gantung".</t>
+  </si>
+  <si>
+    <t>0857-2140-2100</t>
+  </si>
+  <si>
+    <t>1Um9wvMTpLlWOGLBJEGGosaqZXVLPYkmM</t>
+  </si>
+  <si>
+    <t>1yoY6Ens4DjNVr0h9ZvWSojDEheE0lmPw</t>
+  </si>
+  <si>
+    <t>1oi2-EKdpYPKVYDAJRdlMH6k1HMiHjTS1</t>
+  </si>
+  <si>
+    <t>1fy1kmYgC10gJ-L2QxlNQ06iZiQIKXLE6</t>
+  </si>
+  <si>
+    <t>Di bawah Gunung Cereme, air terjun ini mengaliri kolam yang terletak di taman yang dikelilingi hutan pinus</t>
+  </si>
+  <si>
+    <t>0813-8499-0974</t>
+  </si>
+  <si>
+    <t>1yhumEXfio2rxsSg2Utn4AardldnYvRvn</t>
+  </si>
+  <si>
+    <t>16Ta2sooG-zWlhJQzm0_dHNel9MQLAdcz</t>
+  </si>
+  <si>
+    <t>1UyOtpYEWBGkD-IeVXPK8yCxlPU71eX7K</t>
+  </si>
+  <si>
+    <t>1r4WP2sVJO3qbsMg7Ef9jAdYQpaGthk_J</t>
+  </si>
+  <si>
+    <t>1If6XLKEq_Xjq6Qr-RzmfncLVaMN-g4AJ</t>
+  </si>
+  <si>
+    <t>131nrpRGuZjtYfgpdj3Gva9RLyqUs1UbO</t>
+  </si>
+  <si>
+    <t>1oe10A0DKGPvxH6mVLo7M7X9PmrXkOAD4</t>
+  </si>
+  <si>
+    <t>1GeV2alxZJJpKWHzsl0qX2oqfo0ByMw_-</t>
+  </si>
+  <si>
+    <t>1dBZtlk7eUsiBsGeVT7zqxGOkM8lFfPAf</t>
+  </si>
+  <si>
+    <t>1hO55kiCMb9HTIHSFEjXDACCQ89qlcWG1</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>1ZZeJovJtXnJ0bvfWjsf8u7lp6my-tYi3</t>
+  </si>
+  <si>
+    <t>1Jm9X0nohsj2p-3ZaJ9hfcBgoBQsO6ipu</t>
+  </si>
+  <si>
+    <t>1XdefZLRMtGCKJ49zav0CYVAJSWD7MDwm</t>
+  </si>
+  <si>
+    <t>1Sa6mH44dOW96Tf3RbKmWgu5OTqdYzxI2</t>
+  </si>
+  <si>
+    <t>0813-2408-2969</t>
+  </si>
+  <si>
+    <t>1-rvdWAEZAwOdDRjgDAVZNrT529VvZbop</t>
+  </si>
+  <si>
+    <t>1Dlq7nycaFBKbZ8J53PGqxiSJVsEP3lQV</t>
   </si>
 </sst>
 </file>
@@ -334,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +611,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -389,24 +634,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -429,34 +661,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
       <bottom style="hair">
         <color indexed="64"/>
       </bottom>
@@ -484,51 +688,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -539,36 +753,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -881,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E68D29-FBE1-446E-B5C1-A603C3C69A59}">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -892,78 +1092,133 @@
     <col min="2" max="2" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="70" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+      <c r="F1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="str">
+      <c r="B4" s="10" t="str">
         <f>LOWER(SUBSTITUTE(C4, " ", "-"))</f>
         <v>terasering-panyaweuyan</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <v>153325</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="F4" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="17">
+        <v>5</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="84" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="str">
+      <c r="B5" s="10" t="str">
         <f>LOWER(SUBSTITUTE(C5, " ", "-"))</f>
         <v>paralayang-gunung-panten</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>39374</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="str">
+      <c r="B6" s="10" t="str">
         <f t="shared" ref="B6:B53" si="0">LOWER(SUBSTITUTE(C6, " ", "-"))</f>
         <v>situ-cipanteun</v>
       </c>
@@ -973,15 +1228,30 @@
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>145392</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="str">
+      <c r="B7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>curug-muara-jaya</v>
       </c>
@@ -991,15 +1261,30 @@
       <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>28478</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="17">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="str">
+      <c r="B8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>cikadongdong-river-tubing</v>
       </c>
@@ -1009,15 +1294,30 @@
       <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>19351</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="str">
+      <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>prabu-siliwangi</v>
       </c>
@@ -1027,15 +1327,28 @@
       <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>30706</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="F9" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="25" t="str">
+      <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
         <v>talaga-herang</v>
       </c>
@@ -1045,33 +1358,51 @@
       <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>8588</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="84" x14ac:dyDescent="0.35">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="84" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="str">
+      <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
         <v>buper-cibaringkeng-(sanghyg-dora)</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="12">
         <v>3719</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="70" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>talaga-pancar-</v>
       </c>
@@ -1081,15 +1412,24 @@
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>7998</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>terasering-ciboer-pas</v>
       </c>
@@ -1099,15 +1439,24 @@
       <c r="D13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="12">
         <v>11153</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="70" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="10" t="str">
         <f t="shared" si="0"/>
         <v>kebon-teh-cipasung</v>
       </c>
@@ -1117,15 +1466,24 @@
       <c r="D14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="12">
         <v>6129</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="25" t="str">
+      <c r="B15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>taman-dinosaurus</v>
       </c>
@@ -1135,15 +1493,26 @@
       <c r="D15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="12">
         <v>8353</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="70" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
         <v>13</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="10" t="str">
         <f t="shared" si="0"/>
         <v>bukit-pelangi-gunung-tilu</v>
       </c>
@@ -1153,33 +1522,57 @@
       <c r="D16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="25" t="str">
+      <c r="B17" s="10" t="str">
         <f t="shared" si="0"/>
         <v>cidewata</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="12">
         <v>6603</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="F17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="10" t="str">
         <f t="shared" si="0"/>
         <v>buper-panten-(tngc)</v>
       </c>
@@ -1189,33 +1582,59 @@
       <c r="D18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="12">
         <v>26749</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="F18" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>16</v>
       </c>
-      <c r="B19" s="25" t="str">
+      <c r="B19" s="10" t="str">
         <f t="shared" si="0"/>
         <v>cadas-gantung-(perhutani)</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="12">
         <v>1647</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="84" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="F19" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="10" t="str">
         <f t="shared" si="0"/>
         <v>jalur-pendakian-sadarehe-(tngc)</v>
       </c>
@@ -1225,33 +1644,57 @@
       <c r="D20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="12">
         <v>4646</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="196" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>curug-cipeuteuy-(tngc)</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>43581</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="F21" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
         <v>19</v>
       </c>
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="10" t="str">
         <f t="shared" si="0"/>
         <v>nyimas-cincin-(perhutani)</v>
       </c>
@@ -1261,33 +1704,53 @@
       <c r="D22" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="84" x14ac:dyDescent="0.35">
+      <c r="F22" s="17"/>
+      <c r="G22" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="84" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="B23" s="25" t="str">
+      <c r="B23" s="10" t="str">
         <f t="shared" si="0"/>
         <v>gunung-karang-(perhutani)</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="12">
         <v>1458</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
         <v>21</v>
       </c>
-      <c r="B24" s="25" t="str">
+      <c r="B24" s="10" t="str">
         <f t="shared" si="0"/>
         <v>situ-sangiang-(tngc)</v>
       </c>
@@ -1297,33 +1760,55 @@
       <c r="D24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="12">
         <v>10512</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="84" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>22</v>
       </c>
-      <c r="B25" s="25" t="str">
+      <c r="B25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>buper-awilega-(tngc)</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="12">
         <v>2839</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
         <v>23</v>
       </c>
-      <c r="B26" s="25" t="str">
+      <c r="B26" s="10" t="str">
         <f t="shared" si="0"/>
         <v>curug-sawer-(tngc)</v>
       </c>
@@ -1333,15 +1818,26 @@
       <c r="D26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="84" x14ac:dyDescent="0.35">
       <c r="A27" s="10">
         <v>24</v>
       </c>
-      <c r="B27" s="25" t="str">
+      <c r="B27" s="10" t="str">
         <f t="shared" si="0"/>
         <v>gunung-ciwaru-(tngc)</v>
       </c>
@@ -1351,15 +1847,26 @@
       <c r="D27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="12">
         <v>3972</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="70" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
+      <c r="F27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
         <v>25</v>
       </c>
-      <c r="B28" s="25" t="str">
+      <c r="B28" s="10" t="str">
         <f t="shared" si="0"/>
         <v>curug-leles-(tngc)</v>
       </c>
@@ -1369,33 +1876,51 @@
       <c r="D28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="12">
         <v>9023</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="F28" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A29" s="10">
         <v>26</v>
       </c>
-      <c r="B29" s="25" t="str">
+      <c r="B29" s="10" t="str">
         <f t="shared" si="0"/>
         <v>bukit-kandaga-hill--(tngc)</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="12">
         <v>7137</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="70" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
         <v>27</v>
       </c>
-      <c r="B30" s="25" t="str">
+      <c r="B30" s="10" t="str">
         <f t="shared" si="0"/>
         <v>batu-nyongclo-(tngc)</v>
       </c>
@@ -1405,446 +1930,580 @@
       <c r="D30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="12">
         <v>2389</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A31" s="10">
         <v>28</v>
       </c>
-      <c r="B31" s="25" t="str">
+      <c r="B31" s="10" t="str">
         <f t="shared" si="0"/>
         <v>sawiah-(tngc)</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="12">
         <v>342</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
         <v>29</v>
       </c>
-      <c r="B32" s="25" t="str">
+      <c r="B32" s="10" t="str">
         <f t="shared" si="0"/>
         <v>buper-gunung-putri-(tngc)</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="12">
         <v>3428</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A33" s="10">
         <v>30</v>
       </c>
-      <c r="B33" s="25" t="str">
+      <c r="B33" s="10" t="str">
         <f t="shared" si="0"/>
         <v>water-boom-tirta-indah</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="12">
         <v>33378</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="70" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
         <v>31</v>
       </c>
-      <c r="B34" s="25" t="str">
+      <c r="B34" s="10" t="str">
         <f t="shared" si="0"/>
         <v>kolam-renang-khuzuma</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="12">
         <v>3721</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A35" s="10">
         <v>32</v>
       </c>
-      <c r="B35" s="25" t="str">
+      <c r="B35" s="10" t="str">
         <f t="shared" si="0"/>
         <v>jembar-water-park</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="12">
         <v>76720</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="70" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
         <v>33</v>
       </c>
-      <c r="B36" s="25" t="str">
+      <c r="B36" s="10" t="str">
         <f t="shared" si="0"/>
         <v>kolam-renang-tawakal</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="12">
         <v>3463</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+    </row>
+    <row r="37" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A37" s="10">
         <v>34</v>
       </c>
-      <c r="B37" s="25" t="str">
+      <c r="B37" s="10" t="str">
         <f t="shared" si="0"/>
         <v>taman-air-rajawali</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="12">
         <v>25956</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="84" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
         <v>35</v>
       </c>
-      <c r="B38" s="25" t="str">
+      <c r="B38" s="10" t="str">
         <f t="shared" si="0"/>
         <v>kolam-renang-tohaga-indah</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="12">
         <v>6127</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.35">
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" ht="56" x14ac:dyDescent="0.35">
       <c r="A39" s="10">
         <v>36</v>
       </c>
-      <c r="B39" s="25" t="str">
+      <c r="B39" s="10" t="str">
         <f t="shared" si="0"/>
         <v>water-boom-tirta-bima</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="12">
         <v>11698</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+    </row>
+    <row r="40" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
         <v>37</v>
       </c>
-      <c r="B40" s="25" t="str">
+      <c r="B40" s="10" t="str">
         <f t="shared" si="0"/>
         <v>kids-fun-yogya</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="12">
         <v>33497</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+    </row>
+    <row r="41" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A41" s="10">
         <v>38</v>
       </c>
-      <c r="B41" s="25" t="str">
+      <c r="B41" s="10" t="str">
         <f t="shared" si="0"/>
         <v>games-master-ud</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="12">
         <v>32682</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="84" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+    </row>
+    <row r="42" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
         <v>39</v>
       </c>
-      <c r="B42" s="25" t="str">
+      <c r="B42" s="10" t="str">
         <f t="shared" si="0"/>
         <v>pendakian-gunung-ciremai-apuy</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="12">
         <v>7601</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="10">
         <v>40</v>
       </c>
-      <c r="B43" s="25" t="str">
+      <c r="B43" s="10" t="str">
         <f t="shared" si="0"/>
         <v>sharongghe</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="12">
         <v>7209</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A44" s="10">
         <v>41</v>
       </c>
-      <c r="B44" s="25" t="str">
+      <c r="B44" s="10" t="str">
         <f t="shared" si="0"/>
         <v>marlina-kopi</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="12">
         <v>17242</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A45" s="10">
         <v>42</v>
       </c>
-      <c r="B45" s="25" t="str">
+      <c r="B45" s="10" t="str">
         <f t="shared" si="0"/>
         <v>kolam-renang-putri-borneo</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="12">
         <v>30682</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A46" s="10">
         <v>43</v>
       </c>
-      <c r="B46" s="25" t="str">
+      <c r="B46" s="10" t="str">
         <f t="shared" si="0"/>
         <v>bee-park-argalingga</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="12">
         <v>20154</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A47" s="10">
         <v>44</v>
       </c>
-      <c r="B47" s="25" t="str">
+      <c r="B47" s="10" t="str">
         <f t="shared" si="0"/>
         <v>gunung-laya</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="12">
         <v>28943</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="56" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10" ht="56" x14ac:dyDescent="0.35">
+      <c r="A48" s="10">
         <v>45</v>
       </c>
-      <c r="B48" s="25" t="str">
+      <c r="B48" s="10" t="str">
         <f t="shared" si="0"/>
         <v>curug-tapak-kuda</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="12">
         <v>4869</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="70" x14ac:dyDescent="0.35">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="1:10" ht="70" x14ac:dyDescent="0.35">
       <c r="A49" s="10">
         <v>46</v>
       </c>
-      <c r="B49" s="25" t="str">
+      <c r="B49" s="10" t="str">
         <f t="shared" si="0"/>
         <v>istana-stable-equestrian-park</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="12">
         <v>23474</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
         <v>47</v>
       </c>
-      <c r="B50" s="25" t="str">
+      <c r="B50" s="10" t="str">
         <f t="shared" si="0"/>
         <v>situ-janawi</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="12">
         <v>12048</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A51" s="10">
         <v>48</v>
       </c>
-      <c r="B51" s="25" t="str">
+      <c r="B51" s="10" t="str">
         <f t="shared" si="0"/>
         <v>sawah-bengkok</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E51" s="12">
         <v>37167</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:10" ht="42" x14ac:dyDescent="0.35">
+      <c r="A52" s="10">
         <v>49</v>
       </c>
-      <c r="B52" s="25" t="str">
+      <c r="B52" s="10" t="str">
         <f t="shared" si="0"/>
         <v>situ-ciranca</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="12">
         <v>24509</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+    </row>
+    <row r="53" spans="1:10" ht="42" x14ac:dyDescent="0.35">
       <c r="A53" s="10">
         <v>50</v>
       </c>
-      <c r="B53" s="25" t="str">
+      <c r="B53" s="10" t="str">
         <f t="shared" si="0"/>
         <v>aryakiban</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="12">
         <v>22473</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="7"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="7"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="B1:B3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" display="https://www.google.com/search?sca_esv=08810a66cef76e77&amp;sxsrf=ADLYWII-NQJPbxGMKeq8LeXwRIb71g6PYw:1735807442608&amp;q=wisata+prabu+siliwangi&amp;source=lnms&amp;fbs=AEQNm0AOxaibqtJa9LyihvbOEwVygV_NVshNALPIBX1dYoudWX_9Grhgmf5CPweCXMmIt-WQHjGoMexl5EB9t5ukA8sSY8AwY2QiMsFULtrBplG4H1fF56V1QfznmeN0Tvvmx0Gp8udRo7EOjgaRohfgvpRu5_cuu3EFL_sfeIHgiKYBYK9P2xMIW1kv5t381tcxESdNu0ni0B42YMC4ML-8NOb-6L76Yg&amp;sa=X&amp;ved=2ahUKEwiTno_Q0taKAxWpxjgGHcxyDkAQ0pQJegQIERAB&amp;biw=1280&amp;bih=632&amp;dpr=1.5" xr:uid="{B39DF265-A9FA-4DC9-85BD-41F328F7CACD}"/>
+    <hyperlink ref="F17" r:id="rId2" display="https://www.google.com/search?sca_esv=a22d93479fb8aa44&amp;sxsrf=ADLYWIIdQ9bhAIcZNqdQ7ldJzJB2f2rCMw:1735810031034&amp;q=CIDEWATA&amp;source=lnms&amp;fbs=AEQNm0D7Nkus73mDfRiM-qGSEUWUGRlQvLHQV1vCo9BTpxTWdZoxaNzdZCQaSTXAf-_IdsJHjxgsB7mkJu59_ElH23rCs25uc5yRu4syRIHY7fsVTUi3yyDbxPNvaiM-toaSUZM9u1M6uJbaArqu6zg0UworpyPqE55RQZVIEhZV0TW8FJ9GoXX44JMl1d216GgLEYSO9b7Gmy-NpMuGRHLeyEo5j6ZsPg&amp;sa=X&amp;ved=2ahUKEwiam7Ci3NaKAxX2zTgGHc4VPFAQ0pQJegQIFBAB&amp;biw=1280&amp;bih=632&amp;dpr=1.5" xr:uid="{3C4B2EE9-CF4D-4F93-9D4C-6AF82304226F}"/>
+    <hyperlink ref="F18" r:id="rId3" display="https://www.google.com/search?q=BUPER+PANTEN+%28TNGC%29%0D%0A&amp;sca_esv=a22d93479fb8aa44&amp;biw=1280&amp;bih=632&amp;sxsrf=ADLYWIIJtEDS1qIhmfu2ei5258BoaSjeqg%3A1735810104857&amp;ei=OFx2Z9aENIuZ4-EPoMbagQ0&amp;ved=0ahUKEwjWgMrF3NaKAxWLzDgGHSCjNtAQ4dUDCBA&amp;uact=5&amp;oq=BUPER+PANTEN+%28TNGC%29%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiFEJVUEVSIFBBTlRFTiAoVE5HQykKMg0QABiABBiwAxhDGIoFMhEQLhiABBiwAxjHARiOBRivATIJEAAYsAMYBxgeMgkQABiwAxgHGB4yCRAAGLADGAcYHjIHEAAYsAMYHjIHEAAYsAMYHjIHEAAYsAMYHjILEAAYgAQYsAMYogQyCxAAGIAEGLADGKIESM8IUNQBWNQBcAF4AJABAJgBAKABAKoBALgBA8gBAPgBAvgBAZgCAaACB5gDAIgGAZAGCpIHATGgBwA&amp;sclient=gws-wiz-serp" xr:uid="{01204D64-F971-4CD8-8EC9-40A279C76206}"/>
+    <hyperlink ref="F19" r:id="rId4" display="https://www.google.com/search?q=CADAS+GANTUNG+(PERHUTANI)&amp;oq=CADAS+GANTUNG+(PERHUTANI)&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIKCAEQABiABBiiBDIKCAIQABiABBiiBDIHCAMQABjvBTIHCAQQABjvBTIHCAUQABjvBdIBBzgwNmowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{7060455A-607E-491D-808C-ADBB7BFA1A48}"/>
+    <hyperlink ref="F21" r:id="rId5" display="https://www.google.com/search?q=CURUG+CIPEUTEUY+(TNGC)&amp;oq=CURUG+CIPEUTEUY+(TNGC)&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIHCAEQIRigAdIBBzI3NWowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{79AE3B2C-8093-4321-A06C-7988A8C17F1D}"/>
+    <hyperlink ref="F28" r:id="rId6" display="https://www.google.com/search?q=CURUG+LELES+(TNGC)&amp;oq=CURUG+LELES+(TNGC)&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOdIBBzc3MGowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{FE6DAE14-E8C1-48A2-9B93-AA6CD4D154B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/public/data/List.xlsx
+++ b/public/data/List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Freelance\wisata\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC76AE44-4A58-4DDA-84C1-589FC049A563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07349E83-DCA9-4D2A-9968-6B2A20A4AF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{D2363A19-4CDB-41FE-88BB-1F3B6ABF98F6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="253">
   <si>
     <t>NO</t>
   </si>
@@ -562,6 +562,237 @@
   </si>
   <si>
     <t>1Dlq7nycaFBKbZ8J53PGqxiSJVsEP3lQV</t>
+  </si>
+  <si>
+    <t>1xWODkbrUnMXtY0tu_cekTQZ4FHdrKW12</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>0822-6307-5274</t>
+  </si>
+  <si>
+    <t>1t-UiwlUNuOntDjq6LWKo511uviO80SiJ</t>
+  </si>
+  <si>
+    <t>0856-0382-1069</t>
+  </si>
+  <si>
+    <t>1NhWcdJJhQO2XWkAWAmwpItq7z2hqTk0J</t>
+  </si>
+  <si>
+    <t>1AtAXQdWjo8YwF0eRrlWtvR22-4c5J9pc</t>
+  </si>
+  <si>
+    <t>1FNMZkDOrUfrqlMNOfw2mqOxmBG9vGIL9</t>
+  </si>
+  <si>
+    <t>1hlf9ImAfe36VrBexJ-tbQIVWFMQbiYFu</t>
+  </si>
+  <si>
+    <t>Kamp musim panas anak-anak di Jawa Barat</t>
+  </si>
+  <si>
+    <t>13CjAsdNQCDLncgn7jgpoes4A79hXhRRd</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>1PYJ2-rpaceurD1wSBajkhlPEzvVo75Oo</t>
+  </si>
+  <si>
+    <t> (0233) 511222</t>
+  </si>
+  <si>
+    <t>1FXzJJz6OSfdfoJ9BmyIGwRvEic-uWk0m</t>
+  </si>
+  <si>
+    <t>0823-1500-0075</t>
+  </si>
+  <si>
+    <t>15BOEufsdDsMuKjBZ_1Wfr2TDVx4oZBC7</t>
+  </si>
+  <si>
+    <t>1En34UNgWDUibY7GmLHtWbniSoHfASsR_</t>
+  </si>
+  <si>
+    <t>0852-1212-1000</t>
+  </si>
+  <si>
+    <t>1x5e27ZN25EuREE8rChnApZoD-tjmqJ5f</t>
+  </si>
+  <si>
+    <t>19cW3LwULQBgYRlcL4eeU6blwnmwu14zF</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Kolam Renang Rajawali Majalengka</t>
+  </si>
+  <si>
+    <t>1HmDq98haNpGDooz_CrzCVg34i888XzhF</t>
+  </si>
+  <si>
+    <t>1MeoyJfj7ucyN6sKFdq4klACKdV7LZL6G</t>
+  </si>
+  <si>
+    <t> 0812-2355-854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolam renang tohaga indah cocok untuk rekreasi keluarga </t>
+  </si>
+  <si>
+    <t>1QmmJq1ODBmQ1vD0iQhez0V0l1IguwpHak</t>
+  </si>
+  <si>
+    <t>1Er8MrNxTZ90n8QgX2WQB32DwMqeT28s-</t>
+  </si>
+  <si>
+    <t> (0233) 282521</t>
+  </si>
+  <si>
+    <t>Kolam Renang Tirta Bima Majalengka adalah tempat seru untuk berenang dan bersantai bersama keluarga.</t>
+  </si>
+  <si>
+    <t>1GATma9SBdN6RHIdhbOOYOWDBkpsKiTOl</t>
+  </si>
+  <si>
+    <t>1CxIo4LQOsSN6cohP2BxVDJzLfi1pS2p7</t>
+  </si>
+  <si>
+    <t>0815-8527-8979</t>
+  </si>
+  <si>
+    <t>1nsGKHNieK-S_sQwTYjIXCFOzjIkEftJ1</t>
+  </si>
+  <si>
+    <t>1IVSssEMgSC57ylsCK8FNVVCYMkIOMEmo</t>
+  </si>
+  <si>
+    <t>15gGDZcJNrJNxqtPAfYxCIVeaBk3wAn46</t>
+  </si>
+  <si>
+    <t>1HUM6qXhuzBfy6FIsQenX5Y0EHUL0Nr1D</t>
+  </si>
+  <si>
+    <t>1PfmkeQyTCVHRTlsTpiEtvlCGg2mApqqA</t>
+  </si>
+  <si>
+    <t>0898-8593-214</t>
+  </si>
+  <si>
+    <t>16otd-eHwe9B50YP-A8PHvMRh-jRX280W</t>
+  </si>
+  <si>
+    <t>143hIWQ5wUkeBFA49RYsnJ2VTBnUy1X8r</t>
+  </si>
+  <si>
+    <t>0812-2406-5202</t>
+  </si>
+  <si>
+    <t>Kafe ini bukan sekadar menyajikan menu makan dan minum yang memanjakan lidah, tapi juga menyuguhkan nuansa alam yang cukup menyejukan hati.</t>
+  </si>
+  <si>
+    <t>1UY2GDPNFA95qf0HXS30G9X2M6VNfVgFc</t>
+  </si>
+  <si>
+    <t>1x399HEAdvvveUTa6I25pccUAsJkzvYbL</t>
+  </si>
+  <si>
+    <t> 0813-1305-7669</t>
+  </si>
+  <si>
+    <t>1IXUyht4L5GmJlGsvBkzkMACLBhlkZH-k</t>
+  </si>
+  <si>
+    <t>1lhmuNUyNDKPQtqt3YMhEqRrHE8Ba8jkz</t>
+  </si>
+  <si>
+    <t>1tnrdg-9I-53pUPWBpQYXjK-iRG5xpRkp</t>
+  </si>
+  <si>
+    <t> 0823-1837-0726</t>
+  </si>
+  <si>
+    <t>Taman yang terletak di bawah kaki Gunung Ciremai atau tepatnya di Desa Argalingga, Kecamatan Argapura itu menyuguhkan fasilitas yang menarik</t>
+  </si>
+  <si>
+    <t>1h38u4dsRR7jRB8WyaQm_wgCuKtVTiW4y</t>
+  </si>
+  <si>
+    <t>1vZCHqU39DYDB46q9gNLYISqi0Fvqga4y</t>
+  </si>
+  <si>
+    <t>14SsmeM3E5RRp3TTSataV704zSuo_eLhx</t>
+  </si>
+  <si>
+    <t>Curug Kapak Kuda merupakan salah satu tempat wisata terkenal yang ada di Majalengka</t>
+  </si>
+  <si>
+    <t>1eePodAMuNLIXzFVdeZctticClMWbjydL</t>
+  </si>
+  <si>
+    <t>1fTIbgItGPCovtYprqjIjtxWac6xZ0poV</t>
+  </si>
+  <si>
+    <t>0821-1949-8600</t>
+  </si>
+  <si>
+    <t>Istana Stable Equestrian Park menjadi destinasi wisata baru di Majalengka yang merupakan objek dengan konsep unik, yakni berkuda dan wisata.</t>
+  </si>
+  <si>
+    <t>1Fr0ErgkBDpHp_yONPw7H8yxbffe4Onqo</t>
+  </si>
+  <si>
+    <t>1MGLawCTH_x6sZUKA9MUUZjvZD_CsP7w6</t>
+  </si>
+  <si>
+    <t>Situ Janawi, yang terletak di Desa Payung, Kecamatan Rajagaluh, Kabupaten Majalengka, adalah sebuah danau yang terkenal karena keindahannya. Destinasi wisata ini menawarkan pemandangan alam yang memukau dengan air yang tenang, hamparan hijau di sekitarnya, dan suasana yang damai</t>
+  </si>
+  <si>
+    <t>18GdU21UGvSXpOu_A5RCsKZbhbE_lUnUs</t>
+  </si>
+  <si>
+    <t>1KyCc3D7lrmWp1MNU0YT07Pj-sOGB7AGl</t>
+  </si>
+  <si>
+    <t> 0858-7267-9135</t>
+  </si>
+  <si>
+    <t>Wisata Sawah Bengkok Adalah Wisata alam yang menyuguhkan Kolam renang anak dan dewasa serta spot foto dan selfie area yang menonjolkan keindahan area pesawahan terasering yang sejuk dan indah.</t>
+  </si>
+  <si>
+    <t>1PXjaF3IQkQYGYiqZy-SqNcKcHH40PXLx</t>
+  </si>
+  <si>
+    <t>1_Ij9wf7Qf1s4-f_cADMACVtov6CISAKI</t>
+  </si>
+  <si>
+    <t>Wisata ini memiliki daya tarik tersendiri, yakni aliran sungai langsung dari gunung dan pemandangan alam yang masih asri.</t>
+  </si>
+  <si>
+    <t>1X1G5fws3XaNGerRalNGwy2q0Yslas6Fv</t>
+  </si>
+  <si>
+    <t>1RhEqKPB3RfFWp2vskSpwd2s7NpK70RZ-</t>
+  </si>
+  <si>
+    <t>0896-8036-3511</t>
+  </si>
+  <si>
+    <t>Wisata yang mengusung konsep keluarga ini cocok dikunjungi oleh semua kalangan. Sebab, Aryakibansland memiliki beberapa fasilitas seperti kolam renang dan wahana olahraga air river tubing yang bisa dinikmati anak-anak hingga dewasa. Wisata Aryakiban ini adalah konsep family (keluarga). Di sini ada kolam balita, kolam dewasa, kolam anak-anak, bahkan untuk pemuda juga bisa merasakan wahana river tubing.</t>
+  </si>
+  <si>
+    <t>1fPId1-WDM1xzUGX8YzGrLKXlAan-6Doj</t>
+  </si>
+  <si>
+    <t>1Lzcm1mBY1qqj0N_n7bCpcOeSbse7X8iR</t>
   </si>
 </sst>
 </file>
@@ -709,7 +940,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,11 +963,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -762,9 +990,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1083,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E68D29-FBE1-446E-B5C1-A603C3C69A59}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1093,1380 +1323,1572 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="9" t="str">
         <f>LOWER(SUBSTITUTE(C4, " ", "-"))</f>
         <v>terasering-panyaweuyan</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>153325</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>5</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="9" t="str">
         <f>LOWER(SUBSTITUTE(C5, " ", "-"))</f>
         <v>paralayang-gunung-panten</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>39374</v>
       </c>
       <c r="F5" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>107</v>
       </c>
       <c r="H5" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="9" t="str">
         <f t="shared" ref="B6:B53" si="0">LOWER(SUBSTITUTE(C6, " ", "-"))</f>
         <v>situ-cipanteun</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>145392</v>
       </c>
       <c r="F6" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>107</v>
       </c>
       <c r="H6" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="9" t="str">
         <f t="shared" si="0"/>
         <v>curug-muara-jaya</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>28478</v>
       </c>
       <c r="F7" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>4</v>
       </c>
       <c r="H7" t="s">
         <v>115</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>cikadongdong-river-tubing</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>19351</v>
       </c>
       <c r="F8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>107</v>
       </c>
       <c r="H8" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
         <v>prabu-siliwangi</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>30706</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="9" t="str">
         <f t="shared" si="0"/>
         <v>talaga-herang</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>8588</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
         <v>buper-cibaringkeng-(sanghyg-dora)</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>3719</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="9" t="str">
         <f t="shared" si="0"/>
         <v>talaga-pancar-</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>7998</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17" t="s">
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="16" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="9" t="str">
         <f t="shared" si="0"/>
         <v>terasering-ciboer-pas</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>11153</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
         <v>kebon-teh-cipasung</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>6129</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
         <v>taman-dinosaurus</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>8353</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="16" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="9" t="str">
         <f t="shared" si="0"/>
         <v>bukit-pelangi-gunung-tilu</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17" t="s">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="56" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="9" t="str">
         <f t="shared" si="0"/>
         <v>cidewata</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>6603</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
         <v>buper-panten-(tngc)</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>26749</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="17"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
         <v>cadas-gantung-(perhutani)</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>1647</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="9" t="str">
         <f t="shared" si="0"/>
         <v>jalur-pendakian-sadarehe-(tngc)</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>4646</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="196" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="9" t="str">
         <f t="shared" si="0"/>
         <v>curug-cipeuteuy-(tngc)</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>43581</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I21" s="17" t="s">
+      <c r="I21" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="16" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="9" t="str">
         <f t="shared" si="0"/>
         <v>nyimas-cincin-(perhutani)</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>0</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="16" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="9" t="str">
         <f t="shared" si="0"/>
         <v>gunung-karang-(perhutani)</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>1458</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
-      <c r="B24" s="10" t="str">
+      <c r="B24" s="9" t="str">
         <f t="shared" si="0"/>
         <v>situ-sangiang-(tngc)</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>10512</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17" t="s">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="str">
+      <c r="B25" s="9" t="str">
         <f t="shared" si="0"/>
         <v>buper-awilega-(tngc)</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>2839</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
+      <c r="H25" s="16"/>
+      <c r="I25" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="16" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
+      <c r="A26" s="9">
         <v>23</v>
       </c>
-      <c r="B26" s="10" t="str">
+      <c r="B26" s="9" t="str">
         <f t="shared" si="0"/>
         <v>curug-sawer-(tngc)</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>0</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17" t="s">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
+      <c r="A27" s="9">
         <v>24</v>
       </c>
-      <c r="B27" s="10" t="str">
+      <c r="B27" s="9" t="str">
         <f t="shared" si="0"/>
         <v>gunung-ciwaru-(tngc)</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>3972</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="16"/>
+      <c r="G27" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17" t="s">
+      <c r="H27" s="16"/>
+      <c r="I27" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
+      <c r="A28" s="9">
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="str">
+      <c r="B28" s="9" t="str">
         <f t="shared" si="0"/>
         <v>curug-leles-(tngc)</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>9023</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="16" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
+    <row r="29" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
         <v>26</v>
       </c>
-      <c r="B29" s="10" t="str">
+      <c r="B29" s="9" t="str">
         <f t="shared" si="0"/>
         <v>bukit-kandaga-hill--(tngc)</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <v>7137</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="F29" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A30" s="10">
+      <c r="A30" s="9">
         <v>27</v>
       </c>
-      <c r="B30" s="10" t="str">
+      <c r="B30" s="9" t="str">
         <f t="shared" si="0"/>
         <v>batu-nyongclo-(tngc)</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>2389</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
+      <c r="F30" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
         <v>28</v>
       </c>
-      <c r="B31" s="10" t="str">
+      <c r="B31" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sawiah-(tngc)</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>342</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="32" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
+      <c r="F31" s="16"/>
+      <c r="G31" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="98" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
         <v>29</v>
       </c>
-      <c r="B32" s="10" t="str">
+      <c r="B32" s="9" t="str">
         <f t="shared" si="0"/>
         <v>buper-gunung-putri-(tngc)</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>3428</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
+      <c r="F32" s="16"/>
+      <c r="G32" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
         <v>30</v>
       </c>
-      <c r="B33" s="10" t="str">
+      <c r="B33" s="9" t="str">
         <f t="shared" si="0"/>
         <v>water-boom-tirta-indah</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>33378</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A34" s="10">
+      <c r="F33" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
         <v>31</v>
       </c>
-      <c r="B34" s="10" t="str">
+      <c r="B34" s="9" t="str">
         <f t="shared" si="0"/>
         <v>kolam-renang-khuzuma</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>3721</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A35" s="10">
+      <c r="F34" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A35" s="9">
         <v>32</v>
       </c>
-      <c r="B35" s="10" t="str">
+      <c r="B35" s="9" t="str">
         <f t="shared" si="0"/>
         <v>jembar-water-park</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>76720</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="F35" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>33</v>
       </c>
-      <c r="B36" s="10" t="str">
+      <c r="B36" s="9" t="str">
         <f t="shared" si="0"/>
         <v>kolam-renang-tawakal</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>3463</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
     </row>
     <row r="37" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>34</v>
       </c>
-      <c r="B37" s="10" t="str">
+      <c r="B37" s="9" t="str">
         <f t="shared" si="0"/>
         <v>taman-air-rajawali</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>25956</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A38" s="10">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="112" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
         <v>35</v>
       </c>
-      <c r="B38" s="10" t="str">
+      <c r="B38" s="9" t="str">
         <f t="shared" si="0"/>
         <v>kolam-renang-tohaga-indah</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>6127</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A39" s="10">
+      <c r="F38" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="196" x14ac:dyDescent="0.35">
+      <c r="A39" s="9">
         <v>36</v>
       </c>
-      <c r="B39" s="10" t="str">
+      <c r="B39" s="9" t="str">
         <f t="shared" si="0"/>
         <v>water-boom-tirta-bima</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>11698</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-    </row>
-    <row r="40" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A40" s="10">
+      <c r="F39" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
         <v>37</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="9" t="str">
         <f t="shared" si="0"/>
         <v>kids-fun-yogya</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>33497</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-    </row>
-    <row r="41" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A41" s="10">
+      <c r="F40" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A41" s="9">
         <v>38</v>
       </c>
-      <c r="B41" s="10" t="str">
+      <c r="B41" s="9" t="str">
         <f t="shared" si="0"/>
         <v>games-master-ud</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>32682</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J41" s="16"/>
     </row>
     <row r="42" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A42" s="10">
+      <c r="A42" s="9">
         <v>39</v>
       </c>
-      <c r="B42" s="10" t="str">
+      <c r="B42" s="9" t="str">
         <f t="shared" si="0"/>
         <v>pendakian-gunung-ciremai-apuy</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>7601</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A43" s="10">
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="98" x14ac:dyDescent="0.35">
+      <c r="A43" s="9">
         <v>40</v>
       </c>
-      <c r="B43" s="10" t="str">
+      <c r="B43" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sharongghe</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="11">
         <v>7209</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A44" s="10">
+      <c r="F43" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="280" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
         <v>41</v>
       </c>
-      <c r="B44" s="10" t="str">
+      <c r="B44" s="9" t="str">
         <f t="shared" si="0"/>
         <v>marlina-kopi</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>17242</v>
       </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="F44" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A45" s="10">
+      <c r="A45" s="9">
         <v>42</v>
       </c>
-      <c r="B45" s="10" t="str">
+      <c r="B45" s="9" t="str">
         <f t="shared" si="0"/>
         <v>kolam-renang-putri-borneo</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="11">
         <v>30682</v>
       </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A46" s="10">
+      <c r="F45" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="294" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
         <v>43</v>
       </c>
-      <c r="B46" s="10" t="str">
+      <c r="B46" s="9" t="str">
         <f t="shared" si="0"/>
         <v>bee-park-argalingga</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>20154</v>
       </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-    </row>
-    <row r="47" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A47" s="10">
+      <c r="F46" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="70" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="str">
+      <c r="B47" s="9" t="str">
         <f t="shared" si="0"/>
         <v>gunung-laya</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <v>28943</v>
       </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-    </row>
-    <row r="48" spans="1:10" ht="56" x14ac:dyDescent="0.35">
-      <c r="A48" s="10">
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="182" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
         <v>45</v>
       </c>
-      <c r="B48" s="10" t="str">
+      <c r="B48" s="9" t="str">
         <f t="shared" si="0"/>
         <v>curug-tapak-kuda</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <v>4869</v>
       </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-    </row>
-    <row r="49" spans="1:10" ht="70" x14ac:dyDescent="0.35">
-      <c r="A49" s="10">
+      <c r="F48" s="16"/>
+      <c r="G48" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="266" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
         <v>46</v>
       </c>
-      <c r="B49" s="10" t="str">
+      <c r="B49" s="9" t="str">
         <f t="shared" si="0"/>
         <v>istana-stable-equestrian-park</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="11">
         <v>23474</v>
       </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-    </row>
-    <row r="50" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A50" s="10">
+      <c r="F49" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
         <v>47</v>
       </c>
-      <c r="B50" s="10" t="str">
+      <c r="B50" s="9" t="str">
         <f t="shared" si="0"/>
         <v>situ-janawi</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="11">
         <v>12048</v>
       </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A51" s="10">
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="I50" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="378" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
         <v>48</v>
       </c>
-      <c r="B51" s="10" t="str">
+      <c r="B51" s="9" t="str">
         <f t="shared" si="0"/>
         <v>sawah-bengkok</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="11">
         <v>37167</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-    </row>
-    <row r="52" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A52" s="10">
+      <c r="F51" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="266" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
         <v>49</v>
       </c>
-      <c r="B52" s="10" t="str">
+      <c r="B52" s="9" t="str">
         <f t="shared" si="0"/>
         <v>situ-ciranca</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <v>24509</v>
       </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-    </row>
-    <row r="53" spans="1:10" ht="42" x14ac:dyDescent="0.35">
-      <c r="A53" s="10">
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="I52" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
         <v>50</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="9" t="str">
         <f t="shared" si="0"/>
         <v>aryakiban</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="11">
         <v>22473</v>
       </c>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+      <c r="F53" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="I53" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
@@ -2484,16 +2906,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="B1:B3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://www.google.com/search?sca_esv=08810a66cef76e77&amp;sxsrf=ADLYWII-NQJPbxGMKeq8LeXwRIb71g6PYw:1735807442608&amp;q=wisata+prabu+siliwangi&amp;source=lnms&amp;fbs=AEQNm0AOxaibqtJa9LyihvbOEwVygV_NVshNALPIBX1dYoudWX_9Grhgmf5CPweCXMmIt-WQHjGoMexl5EB9t5ukA8sSY8AwY2QiMsFULtrBplG4H1fF56V1QfznmeN0Tvvmx0Gp8udRo7EOjgaRohfgvpRu5_cuu3EFL_sfeIHgiKYBYK9P2xMIW1kv5t381tcxESdNu0ni0B42YMC4ML-8NOb-6L76Yg&amp;sa=X&amp;ved=2ahUKEwiTno_Q0taKAxWpxjgGHcxyDkAQ0pQJegQIERAB&amp;biw=1280&amp;bih=632&amp;dpr=1.5" xr:uid="{B39DF265-A9FA-4DC9-85BD-41F328F7CACD}"/>
@@ -2502,8 +2924,23 @@
     <hyperlink ref="F19" r:id="rId4" display="https://www.google.com/search?q=CADAS+GANTUNG+(PERHUTANI)&amp;oq=CADAS+GANTUNG+(PERHUTANI)&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIKCAEQABiABBiiBDIKCAIQABiABBiiBDIHCAMQABjvBTIHCAQQABjvBTIHCAUQABjvBdIBBzgwNmowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{7060455A-607E-491D-808C-ADBB7BFA1A48}"/>
     <hyperlink ref="F21" r:id="rId5" display="https://www.google.com/search?q=CURUG+CIPEUTEUY+(TNGC)&amp;oq=CURUG+CIPEUTEUY+(TNGC)&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIHCAEQIRigAdIBBzI3NWowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{79AE3B2C-8093-4321-A06C-7988A8C17F1D}"/>
     <hyperlink ref="F28" r:id="rId6" display="https://www.google.com/search?q=CURUG+LELES+(TNGC)&amp;oq=CURUG+LELES+(TNGC)&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOdIBBzc3MGowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{FE6DAE14-E8C1-48A2-9B93-AA6CD4D154B1}"/>
+    <hyperlink ref="F29" r:id="rId7" display="https://www.google.com/search?q=BUKIT+KANDAGA+HILL+(TNGC)&amp;oq=BUKIT+KANDAGA+HILL++(TNGC)&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIJCAEQIRgKGKAB0gEHOTE3ajBqN6gCALACAA&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{037C4573-DD11-4914-BD64-08FE1E433B24}"/>
+    <hyperlink ref="F30" r:id="rId8" display="https://www.google.com/search?q=BATU+NYONGCLO+(TNGC)&amp;oq=BATU+NYONGCLO+(TNGC)&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIHCAEQIRigAdIBCDExMTFqMGo5qAIAsAIB&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{82D3FAC0-5331-4AAE-B6EB-90C165D84783}"/>
+    <hyperlink ref="F33" r:id="rId9" display="https://www.google.com/search?q=WATER+BOOM+TIRTA+INDAH%0D%0A&amp;sca_esv=3431e2d2e020c503&amp;biw=1280&amp;bih=632&amp;sxsrf=ADLYWIJ8XHOqngRNd_TZN4xExUUmqqfwvA%3A1736344750908&amp;ei=roR-Z9OVN_yf4-EP85yx-AU&amp;ved=0ahUKEwjTpNegpOaKAxX8zzgGHXNODF8Q4dUDCBA&amp;uact=5&amp;oq=WATER+BOOM+TIRTA+INDAH%0D%0A&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiF1dBVEVSIEJPT00gVElSVEEgSU5EQUgKMggQABiwAxjvBTILEAAYgAQYsAMYogQyCBAAGLADGO8FMggQABiwAxjvBTILEAAYgAQYsAMYogRIkglQpgFYpgFwAXgAkAEAmAEAoAEAqgEAuAEDyAEA-AEC-AEBmAIBoAIFmAMAiAYBkAYFkgcBMaAHAA&amp;sclient=gws-wiz-serp" xr:uid="{1A0A721C-2E23-4E46-AD8D-BB2836512CAA}"/>
+    <hyperlink ref="F34" r:id="rId10" display="https://www.google.com/search?q=KOLAM+RENANG+KHUZUMA&amp;oq=KOLAM+RENANG+KHUZUMA&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIHCAEQIRigATIHCAIQIRigATIHCAMQIRiPAjIHCAQQIRiPAtIBBzczM2owajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{D702A409-6739-43C5-AFEA-6C914620D744}"/>
+    <hyperlink ref="F35" r:id="rId11" display="https://www.google.com/search?q=JEMBAR+WATER+PARK&amp;oq=JEMBAR+WATER+PARK&amp;gs_lcrp=EgZjaHJvbWUyDggAEEUYExg5GOMCGIAEMhIIARAuGBMYrwEYxwEYgAQYjgUyCggCEAAYExgWGB4yCggDEAAYExgWGB4yCggEEAAYExgWGB4yCggFEAAYgAQYogQyBwgGEAAY7wXSAQgxMDE1ajBqOagCALACAQ&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{D84FEA21-A66C-4378-A676-CEACCC98260D}"/>
+    <hyperlink ref="F38" r:id="rId12" display="https://www.google.com/search?q=KOLAM+RENANG+TOHAGA+INDAH&amp;oq=KOLAM+RENANG+TOHAGA+INDAH&amp;gs_lcrp=EgZjaHJvbWUyDAgAEEUYORjjAhiABDINCAEQLhivARjHARiABDIICAIQABgWGB4yCAgDEAAYFhgeMggIBBAAGBYYHjIICAUQABgWGB4yBwgGEAAY7wUyCggHEAAYgAQYogQyCggIEAAYgAQYogQyBwgJEAAY7wXSAQczNTRqMGo5qAIAsAIB&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{17136234-1397-4609-98E1-64E0DA22C998}"/>
+    <hyperlink ref="F39" r:id="rId13" display="https://www.google.com/search?q=WATER+BOOM+TIRTA+BIMA&amp;oq=WATER+BOOM+TIRTA+BIMA&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIJCAEQIRgKGKABMgkIAhAhGAoYoAEyCQgDECEYChigATIHCAQQIRiPAjIHCAUQIRiPAjIHCAYQIRiPAtIBBzczM2owajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{B7E3C190-B39F-486E-BFBB-EF3C69EC09CD}"/>
+    <hyperlink ref="F40" r:id="rId14" display="https://www.google.com/search?q=kids+fun+yogya+majalengka&amp;sca_esv=cee82657679d0f25&amp;sxsrf=ADLYWIKlbscSyrn7uEAS6vzvbmxRUJDIJg%3A1736345707117&amp;ei=a4h-Z8DZBoudseMP4ZzFmQg&amp;oq=KIDS+FUN+YOGYA+m&amp;gs_lp=Egxnd3Mtd2l6LXNlcnAiEEtJRFMgRlVOIFlPR1lBIG0qAggBMgYQABgNGB4yBhAAGBYYHjIIEAAYCBgNGB4yCBAAGAgYDRgeMggQABgIGA0YHjIIEAAYCBgNGB4yCBAAGAgYDRgeMggQABgIGA0YHjIIEAAYCBgNGB4yCBAAGAgYDRgeSNsaUO4EWOsOcAF4AZABAJgBaKABugGqAQMxLjG4AQHIAQD4AQGYAgOgAscBwgIKEAAYsAMY1gQYR8ICChAAGIAEGAoYywHCAgsQLhiABBjHARivAcICCBAAGBYYChgemAMAiAYBkAYDkgcDMi4xoAfaFA&amp;sclient=gws-wiz-serp" xr:uid="{23B4D3A2-5EE9-455E-B504-CF04B61B7B78}"/>
+    <hyperlink ref="F43" r:id="rId15" display="https://www.google.com/search?q=SHARONGGHE&amp;oq=SHARONGGHE&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIKCAEQABiABBiiBDIHCAIQABjvBTIKCAMQABiABBiiBDIHCAQQABjvBTIHCAUQABjvBdIBCDEwODFqMGo5qAIAsAIB&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{1441E169-8C1A-4115-883A-ABA05D5CBB38}"/>
+    <hyperlink ref="F44" r:id="rId16" display="https://www.google.com/search?q=MARLINA+KOPI&amp;oq=MARLINA+KOPI&amp;gs_lcrp=EgZjaHJvbWUyDAgAEEUYORjjAhiABDINCAEQLhivARjHARiABDIICAIQABgWGB4yCAgDEAAYFhgeMgcIBBAAGO8FMgoIBRAAGIAEGKIEMgoIBhAAGIAEGKIEMgoIBxAAGKIEGIkF0gEHNzQyajBqOagCALACAQ&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{F3C88444-812A-40AC-ADCA-9B80F8C48CB8}"/>
+    <hyperlink ref="F45" r:id="rId17" display="https://www.google.com/search?q=KOLAM+RENANG+PUTRI+BORNEO&amp;oq=KOLAM+RENANG+PUTRI+BORNEO&amp;gs_lcrp=EgZjaHJvbWUyDAgAEEUYORjjAhiABDINCAEQLhivARjHARiABDIICAIQABgWGB4yCAgDEAAYFhgeMggIBBAAGBYYHjIHCAUQABjvBTIKCAYQABiABBiiBDIHCAcQABjvBdIBBzk5NWowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{CEE2824D-A664-4E96-B628-0C354E79D33A}"/>
+    <hyperlink ref="F46" r:id="rId18" display="https://www.google.com/search?q=BEE+PARK+ARGALINGGA&amp;oq=BEE+PARK+ARGALINGGA&amp;gs_lcrp=EgZjaHJvbWUyDAgAEEUYORjjAhiABDIQCAEQLhivARjHARiABBiOBTIICAIQABgWGB4yCAgDEAAYFhgeMgoIBBAAGAoYFhgeMggIBRAAGBYYHjIKCAYQABiABBiiBDIKCAcQABiABBiiBNIBBzk0MGowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{14B7E4C1-03A1-4145-92C5-C8E029201357}"/>
+    <hyperlink ref="F49" r:id="rId19" display="https://www.google.com/search?q=ISTANA+STABLE+EQUESTRIAN+PARK&amp;oq=ISTANA+STABLE+EQUESTRIAN+PARK&amp;gs_lcrp=EgZjaHJvbWUyDAgAEEUYORjjAhiABDIQCAEQLhivARjHARiABBiOBTIICAIQABgWGB4yCAgDEAAYFhgeMggIBBAAGBYYHjIKCAUQABiABBiiBDIHCAYQABjvBTIHCAcQABjvBTIKCAgQABiABBiiBNIBBzk4MmowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{3384560C-C293-44CD-AF3B-76B1D7F11A07}"/>
+    <hyperlink ref="F51" r:id="rId20" display="https://www.google.com/search?q=SAWAH+BENGKOK&amp;oq=SAWAH+BENGKOK&amp;gs_lcrp=EgZjaHJvbWUyDAgAEEUYORjjAhiABDIQCAEQLhivARjHARiABBiOBTIHCAIQABiABDIQCAMQLhivARjHARiABBiOBTIICAQQABgWGB4yCAgFEAAYFhgeMgYIBhBFGDwyBggHEEUYPNIBBzgwOGowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{D6FFCD5C-8D7A-4642-81A7-9A4BAB5D64D4}"/>
+    <hyperlink ref="F53" r:id="rId21" display="https://www.google.com/search?q=ARYAKIBAN&amp;oq=ARYAKIBAN&amp;gs_lcrp=EgZjaHJvbWUyBggAEEUYOTIHCAEQABiABDIKCAIQABiABBiiBDIKCAMQABiABBiiBNIBBzU2NGowajmoAgCwAgE&amp;sourceid=chrome&amp;ie=UTF-8" xr:uid="{52AB4741-D934-4D34-9545-F15B3E39783D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>